--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\Case_pha_he\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3171A87-5DBB-47C5-9B9F-6983E6732A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF37F905-A159-483D-842B-C063B67B0DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>Trưởng phái, đời 15</t>
+  </si>
+  <si>
+    <t>150001g1</t>
+  </si>
+  <si>
+    <t>Dương Thị Hiệp</t>
+  </si>
+  <si>
+    <t>150001g2</t>
+  </si>
+  <si>
+    <t>Dương Thị Hường</t>
+  </si>
+  <si>
+    <t>150002g1</t>
+  </si>
+  <si>
+    <t>Dương Thị Thu</t>
   </si>
 </sst>
 </file>
@@ -465,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,6 +841,57 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>1977</v>
+      </c>
+      <c r="F22" s="1">
+        <v>150001</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>1991</v>
+      </c>
+      <c r="F23" s="1">
+        <v>150001</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>1978</v>
+      </c>
+      <c r="F24" s="1">
+        <v>150002</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF37F905-A159-483D-842B-C063B67B0DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B9CD85-2C4A-4B73-A129-344AC8512980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -151,6 +151,30 @@
   </si>
   <si>
     <t>Dương Thị Thu</t>
+  </si>
+  <si>
+    <t>160001g1</t>
+  </si>
+  <si>
+    <t>Dương Thị Trà My</t>
+  </si>
+  <si>
+    <t>160002g1</t>
+  </si>
+  <si>
+    <t>Dương Thị Lợi Lợi</t>
+  </si>
+  <si>
+    <t>160004g1</t>
+  </si>
+  <si>
+    <t>Dương Thị Hồng Thúy</t>
+  </si>
+  <si>
+    <t>Dương Thị Thùy</t>
+  </si>
+  <si>
+    <t>160005g1</t>
   </si>
 </sst>
 </file>
@@ -483,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,14 +599,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>160001</v>
+      <c r="A6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F6" s="1">
         <v>150001</v>
@@ -592,129 +616,130 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1">
+        <v>160001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1979</v>
+      </c>
+      <c r="F7" s="1">
+        <v>150001</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1984</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
         <v>160001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>160002</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1981</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>150001</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1985</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
         <v>160002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>160003</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1988</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>150001</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1989</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
         <v>160003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>160004</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>1980</v>
-      </c>
-      <c r="F12" s="1">
-        <v>150002</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <v>160004</v>
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>1991</v>
+      </c>
+      <c r="F13" s="1">
+        <v>150001</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>160005</v>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>1982</v>
-      </c>
-      <c r="D14">
-        <v>2023</v>
+        <v>1978</v>
       </c>
       <c r="F14" s="1">
         <v>150002</v>
@@ -724,172 +749,239 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="1">
+        <v>160004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>1980</v>
+      </c>
+      <c r="F15" s="1">
+        <v>150002</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>160004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>160005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1982</v>
+      </c>
+      <c r="D17">
+        <v>2023</v>
+      </c>
+      <c r="F17" s="1">
+        <v>150002</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>1987</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
         <v>160005</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>170001</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>2007</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F19" s="1">
         <v>160001</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>2012</v>
+      </c>
+      <c r="F20" s="1">
+        <v>160001</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>2016</v>
+      </c>
+      <c r="F21" s="1">
+        <v>160002</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>170002</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C22">
         <v>2021</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F22" s="1">
         <v>160002</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>2004</v>
+      </c>
+      <c r="F23" s="1">
+        <v>160004</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>170003</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C18">
+      <c r="C24">
         <v>2006</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F24" s="1">
         <v>160004</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>170004</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
+      <c r="C25">
         <v>2009</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F25" s="1">
         <v>160004</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>170005</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C20">
+      <c r="C26">
         <v>2006</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F26" s="1">
         <v>160005</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>2007</v>
+      </c>
+      <c r="F27" s="1">
+        <v>160005</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>170006</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C21">
+      <c r="C28">
         <v>2012</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F28" s="1">
         <v>160005</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>1977</v>
-      </c>
-      <c r="F22" s="1">
-        <v>150001</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23">
-        <v>1991</v>
-      </c>
-      <c r="F23" s="1">
-        <v>150001</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>1978</v>
-      </c>
-      <c r="F24" s="1">
-        <v>150002</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F2739-9680-49E0-95DA-05642957EBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C0954F-C8E0-4B1D-96BF-D29845F2A2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="423">
   <si>
     <t>ID</t>
   </si>
@@ -1304,6 +1304,12 @@
   </si>
   <si>
     <t>Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>A00001</t>
+  </si>
+  <si>
+    <t>Phả hệ Dương Danh</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1397,6 +1403,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1679,11 +1688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD193"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1736,173 +1745,175 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>80001</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="H4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="L4" s="1">
         <v>80001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>90001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="1">
-        <v>80001</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1">
+        <v>80001</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="I6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="1">
+        <v>80001</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1">
         <v>90001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>100001</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="1">
-        <v>90001</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>59</v>
@@ -1911,30 +1922,30 @@
         <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="1">
-        <v>100001</v>
+      <c r="J7" s="1">
+        <v>90001</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>100002</v>
+      <c r="A8" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>59</v>
@@ -1942,8 +1953,11 @@
       <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G8" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>358</v>
+        <v>92</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>59</v>
@@ -1954,16 +1968,22 @@
       <c r="K8" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="L8" s="1">
+        <v>100001</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>359</v>
+      <c r="A9" s="1">
+        <v>100002</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>59</v>
@@ -1971,22 +1991,22 @@
       <c r="F9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>361</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="1">
-        <v>100002</v>
+      <c r="J9" s="1">
+        <v>90001</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
@@ -2001,30 +2021,33 @@
         <v>59</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>59</v>
+      </c>
+      <c r="J10" s="1">
+        <v>90001</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L10" s="1">
         <v>100002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>100003</v>
+      <c r="A11" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>59</v>
@@ -2033,10 +2056,10 @@
         <v>59</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>59</v>
@@ -2047,80 +2070,92 @@
       <c r="K11" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="L11" s="1">
+        <v>100002</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>402</v>
+      <c r="A12" s="1">
+        <v>100003</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="1">
+        <v>90001</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>403</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="I13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="1">
+        <v>90001</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="1">
         <v>100003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
         <v>110001</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1">
-        <v>100001</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="B14" s="1">
         <v>11</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>59</v>
@@ -2129,27 +2164,30 @@
         <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="1">
-        <v>110001</v>
+      <c r="J14" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>59</v>
@@ -2158,30 +2196,33 @@
         <v>59</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>59</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L15" s="1">
         <v>110001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>110002</v>
+      <c r="A16" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>59</v>
@@ -2189,11 +2230,11 @@
       <c r="F16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>59</v>
+      <c r="G16" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>59</v>
@@ -2204,11 +2245,13 @@
       <c r="K16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1">
+        <v>110001</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>110003</v>
+        <v>110002</v>
       </c>
       <c r="B17" s="1">
         <v>11</v>
@@ -2217,7 +2260,7 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>59</v>
@@ -2229,7 +2272,7 @@
         <v>59</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>355</v>
+        <v>59</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>59</v>
@@ -2242,15 +2285,18 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>356</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>110003</v>
       </c>
       <c r="B18" s="1">
         <v>11</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>59</v>
@@ -2258,31 +2304,32 @@
       <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>357</v>
+      <c r="G18" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="1">
-        <v>110003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>110004</v>
+      <c r="J18" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>59</v>
@@ -2290,25 +2337,22 @@
       <c r="F19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>367</v>
+      <c r="G19" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="1">
-        <v>100002</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>360</v>
+      <c r="L19" s="1">
+        <v>110003</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>110005</v>
+        <v>110004</v>
       </c>
       <c r="B20" s="1">
         <v>11</v>
@@ -2317,12 +2361,21 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="1">
@@ -2332,79 +2385,76 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="11">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>110005</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="1">
+        <v>100002</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="11">
         <v>110006</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B22" s="11">
         <v>11</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="E22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="I22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="11">
         <v>100002</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B22" s="1">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="16">
-        <v>110006</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B23" s="1">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>59</v>
@@ -2413,10 +2463,10 @@
         <v>59</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>378</v>
+        <v>59</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>59</v>
@@ -2426,17 +2476,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>110007</v>
+      <c r="A24" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B24" s="1">
         <v>11</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>59</v>
@@ -2445,24 +2492,21 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="1">
-        <v>100003</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>402</v>
+      <c r="L24" s="16">
+        <v>110006</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>110008</v>
+        <v>110007</v>
       </c>
       <c r="B25" s="1">
         <v>11</v>
@@ -2471,7 +2515,7 @@
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -2480,10 +2524,10 @@
         <v>59</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>59</v>
@@ -2496,14 +2540,17 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>410</v>
+      <c r="A26" s="1">
+        <v>110008</v>
       </c>
       <c r="B26" s="1">
         <v>11</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
@@ -2512,27 +2559,30 @@
         <v>59</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>413</v>
+        <v>106</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="1">
-        <v>110008</v>
+      <c r="J26" s="1">
+        <v>100003</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>59</v>
@@ -2541,7 +2591,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>413</v>
@@ -2554,49 +2604,46 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="1">
+        <v>110008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>120001</v>
-      </c>
-      <c r="B28" s="1">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" s="1">
-        <v>110001</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="B29" s="1">
         <v>12</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -2605,27 +2652,30 @@
         <v>59</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="1">
-        <v>120001</v>
+      <c r="J29" s="1">
+        <v>110001</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>59</v>
@@ -2634,10 +2684,10 @@
         <v>59</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>59</v>
@@ -2646,18 +2696,15 @@
         <v>120001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>120002</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B31" s="1">
         <v>12</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>59</v>
@@ -2665,31 +2712,31 @@
       <c r="F31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>262</v>
+      <c r="G31" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="1">
-        <v>110001</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>194</v>
+      <c r="L31" s="1">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>120002</v>
       </c>
       <c r="B32" s="1">
         <v>12</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>59</v>
@@ -2697,31 +2744,31 @@
       <c r="F32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>195</v>
+      <c r="G32" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="1">
-        <v>120002</v>
+      <c r="J32" s="1">
+        <v>110001</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>120003</v>
+      <c r="A33" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B33" s="1">
         <v>12</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D33" t="s">
-        <v>379</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>59</v>
@@ -2730,24 +2777,21 @@
         <v>59</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>382</v>
+        <v>195</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>383</v>
+        <v>196</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="16">
-        <v>110006</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>372</v>
+      <c r="L33" s="1">
+        <v>120002</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>120004</v>
+        <v>120003</v>
       </c>
       <c r="B34" s="1">
         <v>12</v>
@@ -2756,7 +2800,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>59</v>
@@ -2765,10 +2809,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>59</v>
@@ -2777,18 +2821,21 @@
         <v>110006</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>386</v>
+      <c r="A35" s="1">
+        <v>120004</v>
       </c>
       <c r="B35" s="1">
         <v>12</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>59</v>
@@ -2797,30 +2844,30 @@
         <v>59</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="1">
-        <v>120004</v>
+      <c r="J35" s="16">
+        <v>110006</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>120005</v>
+      <c r="A36" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="B36" s="1">
         <v>12</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D36" t="s">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>59</v>
@@ -2829,30 +2876,30 @@
         <v>59</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="16">
-        <v>110006</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>375</v>
+      <c r="L36" s="1">
+        <v>120004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>390</v>
+      <c r="A37" s="1">
+        <v>120005</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>381</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>59</v>
@@ -2861,94 +2908,94 @@
         <v>59</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="1">
-        <v>120005</v>
+      <c r="J37" s="16">
+        <v>110006</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>120006</v>
+      <c r="A38" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="B38" s="1">
         <v>12</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="1">
+        <v>120005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>120006</v>
+      </c>
+      <c r="B39" s="1">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I39" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="1">
         <v>110008</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
+    <row r="40" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>130001</v>
-      </c>
-      <c r="B39" s="1">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="1">
-        <v>120001</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B40" s="1">
         <v>13</v>
       </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>59</v>
@@ -2956,31 +3003,31 @@
       <c r="F40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>123</v>
+      <c r="G40" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="1">
-        <v>130001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>130002</v>
+        <v>59</v>
+      </c>
+      <c r="J40" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B41" s="1">
         <v>13</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>59</v>
@@ -2988,31 +3035,31 @@
       <c r="F41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>125</v>
+      <c r="G41" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="1">
-        <v>120001</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>63</v>
+      </c>
+      <c r="L41" s="1">
+        <v>130001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>130002</v>
       </c>
       <c r="B42" s="1">
         <v>13</v>
       </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>59</v>
@@ -3020,28 +3067,31 @@
       <c r="F42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>129</v>
+      <c r="G42" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="1">
-        <v>130002</v>
+      <c r="J42" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>59</v>
@@ -3050,10 +3100,10 @@
         <v>59</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>59</v>
@@ -3063,17 +3113,14 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>130003</v>
+      <c r="A44" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B44" s="1">
         <v>13</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>59</v>
@@ -3082,30 +3129,30 @@
         <v>59</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="1">
-        <v>120001</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>116</v>
+      <c r="L44" s="1">
+        <v>130002</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>141</v>
+      <c r="A45" s="1">
+        <v>130003</v>
       </c>
       <c r="B45" s="1">
         <v>13</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>59</v>
@@ -3117,27 +3164,27 @@
         <v>59</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L45">
-        <v>130003</v>
+      <c r="J45" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
-        <v>130004</v>
+      <c r="A46" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B46" s="1">
         <v>13</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>59</v>
@@ -3146,30 +3193,30 @@
         <v>59</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J46" s="1">
-        <v>120002</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>194</v>
+      <c r="L46">
+        <v>130003</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>208</v>
+      <c r="A47" s="1">
+        <v>130004</v>
       </c>
       <c r="B47" s="1">
         <v>13</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>59</v>
@@ -3178,24 +3225,30 @@
         <v>59</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L47" s="1">
-        <v>130004</v>
+        <v>203</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="1">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>59</v>
@@ -3204,24 +3257,24 @@
         <v>59</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>207</v>
+        <v>129</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="L48" s="1">
         <v>130004</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>130005</v>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B49" s="1">
         <v>13</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>59</v>
@@ -3229,31 +3282,25 @@
       <c r="F49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="1">
-        <v>120002</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>223</v>
+      <c r="G49" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L49" s="1">
+        <v>130004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>130005</v>
       </c>
       <c r="B50" s="1">
         <v>13</v>
       </c>
+      <c r="C50" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>59</v>
@@ -3261,31 +3308,31 @@
       <c r="F50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>224</v>
+      <c r="G50" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L50" s="1">
-        <v>130005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A51" s="1">
-        <v>130006</v>
+      <c r="J50" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B51" s="1">
         <v>13</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>59</v>
@@ -3293,25 +3340,22 @@
       <c r="F51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>263</v>
+      <c r="G51" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J51" s="1">
-        <v>120002</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L51" s="1">
+        <v>130005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>130007</v>
+        <v>130006</v>
       </c>
       <c r="B52" s="1">
         <v>13</v>
@@ -3320,7 +3364,7 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>59</v>
@@ -3328,8 +3372,8 @@
       <c r="F52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>265</v>
+      <c r="G52" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>264</v>
@@ -3345,14 +3389,17 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>266</v>
+      <c r="A53" s="1">
+        <v>130007</v>
       </c>
       <c r="B53" s="1">
         <v>13</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>59</v>
@@ -3361,30 +3408,30 @@
         <v>59</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L53" s="1">
-        <v>130007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A54" s="1">
-        <v>130008</v>
+      <c r="J53" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B54" s="1">
         <v>13</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>59</v>
@@ -3392,28 +3439,31 @@
       <c r="F54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>302</v>
+      <c r="G54" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J54" s="1">
-        <v>120002</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="1">
+        <v>130007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>130008</v>
       </c>
       <c r="B55" s="1">
         <v>13</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>59</v>
@@ -3421,31 +3471,28 @@
       <c r="F55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>306</v>
+      <c r="G55" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L55" s="1">
-        <v>130008</v>
+        <v>303</v>
+      </c>
+      <c r="J55" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="1">
-        <v>130009</v>
+      <c r="A56" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="B56" s="1">
         <v>13</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D56" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>59</v>
@@ -3453,19 +3500,22 @@
       <c r="F56" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G56" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="I56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="1">
-        <v>120004</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>386</v>
+      <c r="L56" s="1">
+        <v>130008</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>130010</v>
+        <v>130009</v>
       </c>
       <c r="B57" s="1">
         <v>13</v>
@@ -3474,7 +3524,7 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>59</v>
@@ -3482,28 +3532,28 @@
       <c r="F57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="I57" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J57" s="1">
-        <v>120005</v>
+        <v>120004</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>393</v>
+      <c r="A58" s="1">
+        <v>130010</v>
       </c>
       <c r="B58" s="1">
         <v>13</v>
       </c>
+      <c r="C58" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D58" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>59</v>
@@ -3511,34 +3561,40 @@
       <c r="F58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="H58" s="5" t="s">
-        <v>397</v>
+        <v>59</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L58" s="1">
-        <v>130010</v>
+      <c r="J58" s="1">
+        <v>120005</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B59" s="1">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>59</v>
@@ -3547,59 +3603,50 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B60" s="1">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>398</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L60" s="1">
+        <v>130010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
         <v>140001</v>
-      </c>
-      <c r="B60" s="1">
-        <v>14</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1910</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J60" s="1">
-        <v>130001</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>14</v>
       </c>
+      <c r="C61" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1910</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>71</v>
+      <c r="G61" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>59</v>
@@ -3607,25 +3654,31 @@
       <c r="I61" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L61" s="1">
-        <v>140001</v>
+      <c r="J61" s="1">
+        <v>130001</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1910</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1999</v>
+        <v>69</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>59</v>
@@ -3638,49 +3691,43 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="1">
-        <v>140002</v>
+      <c r="A63" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B63" s="1">
         <v>14</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1910</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1999</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="1">
-        <v>130002</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
+      </c>
+      <c r="L63" s="1">
+        <v>140001</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>136</v>
+      <c r="A64" s="1">
+        <v>140002</v>
       </c>
       <c r="B64" s="1">
         <v>14</v>
       </c>
+      <c r="C64" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>59</v>
@@ -3689,21 +3736,30 @@
         <v>59</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>138</v>
+        <v>59</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="1">
+        <v>130002</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A65" s="1">
-        <v>140003</v>
+      <c r="A65" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B65" s="1">
         <v>14</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>59</v>
@@ -3712,30 +3768,21 @@
         <v>59</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J65">
-        <v>130003</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>143</v>
+      <c r="A66" s="1">
+        <v>140003</v>
       </c>
       <c r="B66" s="1">
         <v>14</v>
       </c>
+      <c r="C66" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>59</v>
@@ -3744,7 +3791,7 @@
         <v>59</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>59</v>
@@ -3752,22 +3799,22 @@
       <c r="I66" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L66" s="1">
-        <v>140003</v>
+      <c r="J66">
+        <v>130003</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67" s="1">
-        <v>140004</v>
+      <c r="A67" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B67" s="1">
         <v>14</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>59</v>
@@ -3775,22 +3822,31 @@
       <c r="F67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J67">
-        <v>130003</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>141</v>
+      <c r="G67" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L67" s="1">
+        <v>140003</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>150</v>
+      <c r="A68" s="1">
+        <v>140004</v>
       </c>
       <c r="B68" s="1">
         <v>14</v>
       </c>
+      <c r="C68" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>59</v>
@@ -3798,31 +3854,22 @@
       <c r="F68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L68" s="1">
-        <v>140004</v>
+      <c r="J68">
+        <v>130003</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A69" s="1">
-        <v>140005</v>
+      <c r="A69" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B69" s="1">
         <v>14</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>59</v>
@@ -3830,22 +3877,31 @@
       <c r="F69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J69">
-        <v>130003</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>141</v>
+      <c r="G69" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L69" s="1">
+        <v>140004</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>178</v>
+      <c r="A70" s="1">
+        <v>140005</v>
       </c>
       <c r="B70" s="1">
         <v>14</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>59</v>
@@ -3853,31 +3909,22 @@
       <c r="F70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L70" s="1">
-        <v>140005</v>
+      <c r="J70">
+        <v>130003</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A71" s="1">
-        <v>140006</v>
+      <c r="A71" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B71" s="1">
         <v>14</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>59</v>
@@ -3885,16 +3932,22 @@
       <c r="F71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J71" s="1">
-        <v>130004</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>208</v>
+      <c r="G71" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L71" s="1">
+        <v>140005</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>140007</v>
+        <v>140006</v>
       </c>
       <c r="B72" s="1">
         <v>14</v>
@@ -3903,7 +3956,7 @@
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>59</v>
@@ -3915,18 +3968,21 @@
         <v>130004</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>212</v>
+      <c r="A73" s="1">
+        <v>140007</v>
       </c>
       <c r="B73" s="1">
         <v>14</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>59</v>
@@ -3934,31 +3990,22 @@
       <c r="F73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L73" s="1">
-        <v>140007</v>
+      <c r="J73" s="1">
+        <v>130004</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A74" s="1">
-        <v>140008</v>
+      <c r="A74" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B74" s="1">
         <v>14</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D74" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>59</v>
@@ -3967,7 +4014,7 @@
         <v>59</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>59</v>
@@ -3975,11 +4022,8 @@
       <c r="I74" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J74" s="1">
-        <v>130005</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>223</v>
+      <c r="L74" s="1">
+        <v>140007</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
@@ -3993,7 +4037,7 @@
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>59</v>
@@ -4002,30 +4046,33 @@
         <v>59</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J75" s="1">
-        <v>130007</v>
+        <v>130005</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>226</v>
+      <c r="A76" s="1">
+        <v>140008</v>
       </c>
       <c r="B76" s="1">
         <v>14</v>
       </c>
+      <c r="C76" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>59</v>
@@ -4033,25 +4080,31 @@
       <c r="F76" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G76" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="H76" s="5" t="s">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L76" s="1">
-        <v>140008</v>
+      <c r="J76" s="1">
+        <v>130007</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>418</v>
+        <v>226</v>
       </c>
       <c r="B77" s="1">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>59</v>
@@ -4059,11 +4112,8 @@
       <c r="F77" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="H77" s="5" t="s">
-        <v>275</v>
+        <v>59</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>59</v>
@@ -4073,17 +4123,14 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A78" s="1">
-        <v>140009</v>
+      <c r="A78" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="B78" s="1">
         <v>14</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>59</v>
@@ -4092,24 +4139,21 @@
         <v>59</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J78" s="1">
-        <v>130008</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>304</v>
+      <c r="L78" s="1">
+        <v>140008</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>140010</v>
+        <v>140009</v>
       </c>
       <c r="B79" s="1">
         <v>14</v>
@@ -4118,7 +4162,7 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>59</v>
@@ -4127,10 +4171,10 @@
         <v>59</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>59</v>
@@ -4143,14 +4187,17 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>314</v>
+      <c r="A80" s="1">
+        <v>140010</v>
       </c>
       <c r="B80" s="1">
         <v>14</v>
       </c>
+      <c r="C80" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>59</v>
@@ -4161,19 +4208,28 @@
       <c r="G80" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L80" s="1">
-        <v>140010</v>
+      <c r="H80" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B81" s="1">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>59</v>
@@ -4183,29 +4239,20 @@
       </c>
       <c r="G81" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="L81" s="1">
         <v>140010</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A82" s="1">
-        <v>140011</v>
+      <c r="A82" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="B82" s="1">
         <v>14</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>59</v>
@@ -4213,22 +4260,31 @@
       <c r="F82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J82" s="1">
-        <v>130008</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>304</v>
+      <c r="G82" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L82" s="1">
+        <v>140010</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>339</v>
+      <c r="A83" s="1">
+        <v>140011</v>
       </c>
       <c r="B83" s="1">
         <v>14</v>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D83" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>59</v>
@@ -4236,31 +4292,22 @@
       <c r="F83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L83" s="1">
-        <v>140011</v>
+      <c r="J83" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A84" s="1">
-        <v>140012</v>
+      <c r="A84" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="B84" s="1">
         <v>14</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D84" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>59</v>
@@ -4268,22 +4315,31 @@
       <c r="F84" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J84" s="1">
-        <v>130008</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>304</v>
+      <c r="G84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L84" s="1">
+        <v>140011</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>351</v>
+      <c r="A85" s="1">
+        <v>140012</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
       </c>
+      <c r="C85" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D85" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>59</v>
@@ -4291,31 +4347,22 @@
       <c r="F85" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L85" s="1">
-        <v>140012</v>
+      <c r="J85" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A86" s="1">
-        <v>140013</v>
+      <c r="A86" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="B86" s="1">
         <v>14</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D86" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>59</v>
@@ -4323,235 +4370,235 @@
       <c r="F86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H86" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J86" s="1">
-        <v>130010</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>394</v>
+      <c r="G86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L86" s="1">
+        <v>140012</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
+        <v>140013</v>
+      </c>
+      <c r="B87" s="1">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" t="s">
+        <v>399</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="1">
+        <v>130010</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
         <v>150001</v>
-      </c>
-      <c r="B87" s="1">
-        <v>15</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1945</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J87" s="1">
-        <v>140001</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B88" s="1">
         <v>15</v>
       </c>
+      <c r="C88" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" s="1">
-        <v>1953</v>
-      </c>
-      <c r="L88" s="1">
-        <v>150001</v>
+        <v>1945</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J88" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A89" s="1">
-        <v>150002</v>
+      <c r="A89" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B89" s="1">
         <v>15</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E89" s="1">
         <v>1953</v>
       </c>
-      <c r="J89" s="1">
-        <v>140001</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>57</v>
+      <c r="L89" s="1">
+        <v>150001</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>11</v>
+      <c r="A90" s="1">
+        <v>150002</v>
       </c>
       <c r="B90" s="1">
         <v>15</v>
       </c>
+      <c r="C90" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="L90" s="1">
-        <v>150002</v>
+        <v>10</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1953</v>
+      </c>
+      <c r="J90" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A91" s="1">
-        <v>150003</v>
+      <c r="A91" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B91" s="1">
         <v>15</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D91" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J91" s="1">
-        <v>140003</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="L91" s="1">
+        <v>150002</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
-        <v>146</v>
+      <c r="A92" s="1">
+        <v>150003</v>
       </c>
       <c r="B92" s="1">
         <v>15</v>
       </c>
+      <c r="C92" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L92" s="1">
-        <v>150003</v>
+      <c r="J92" s="1">
+        <v>140003</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A93" s="1">
-        <v>150004</v>
+      <c r="A93" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B93" s="1">
         <v>15</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J93" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>150</v>
+      <c r="L93" s="1">
+        <v>150003</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
-        <v>158</v>
+      <c r="A94" s="1">
+        <v>150004</v>
       </c>
       <c r="B94" s="1">
         <v>15</v>
       </c>
+      <c r="C94" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L94" s="1">
-        <v>150004</v>
+      <c r="F94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A95" s="1">
-        <v>150005</v>
+      <c r="A95" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B95" s="1">
         <v>15</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J95" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>150</v>
+      <c r="L95" s="1">
+        <v>150004</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
-        <v>162</v>
+      <c r="A96" s="1">
+        <v>150005</v>
       </c>
       <c r="B96" s="1">
         <v>15</v>
       </c>
+      <c r="C96" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D96" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>59</v>
@@ -4568,173 +4615,188 @@
       <c r="I96" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L96" s="1">
-        <v>150005</v>
+      <c r="J96" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A97" s="1">
-        <v>150006</v>
+      <c r="A97" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B97" s="1">
         <v>15</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J97" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>150</v>
+      <c r="F97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L97" s="1">
+        <v>150005</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
-        <v>165</v>
+      <c r="A98" s="1">
+        <v>150006</v>
       </c>
       <c r="B98" s="1">
         <v>15</v>
       </c>
+      <c r="C98" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L98" s="1">
-        <v>150006</v>
+      <c r="J98" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A99" s="1">
-        <v>150007</v>
+      <c r="A99" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B99" s="1">
         <v>15</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J99" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>150</v>
+      <c r="L99" s="1">
+        <v>150006</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>167</v>
+      <c r="A100" s="1">
+        <v>150007</v>
       </c>
       <c r="B100" s="1">
         <v>15</v>
       </c>
+      <c r="C100" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L100" s="1">
-        <v>150007</v>
+      <c r="J100" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A101" s="1">
-        <v>150008</v>
+      <c r="A101" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B101" s="1">
         <v>15</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J101" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>150</v>
+      <c r="L101" s="1">
+        <v>150007</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>170</v>
+      <c r="A102" s="1">
+        <v>150008</v>
       </c>
       <c r="B102" s="1">
         <v>15</v>
       </c>
+      <c r="C102" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L102" s="1">
-        <v>150008</v>
+      <c r="J102" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A103" s="1">
-        <v>150009</v>
+      <c r="A103" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B103" s="1">
         <v>15</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D103" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J103" s="1">
-        <v>140004</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>150</v>
+      <c r="L103" s="1">
+        <v>150008</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
-        <v>173</v>
+      <c r="A104" s="1">
+        <v>150009</v>
       </c>
       <c r="B104" s="1">
         <v>15</v>
       </c>
+      <c r="C104" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L104" s="1">
-        <v>150009</v>
+      <c r="J104" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B105" s="1">
         <v>15</v>
@@ -4750,43 +4812,25 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A106" s="1">
-        <v>150010</v>
+      <c r="A106" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B106" s="1">
         <v>15</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D106" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="J106" s="1">
-        <v>140005</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>178</v>
+      <c r="L106" s="1">
+        <v>150009</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
-        <v>150011</v>
+        <v>150010</v>
       </c>
       <c r="B107" s="1">
         <v>15</v>
@@ -4795,13 +4839,22 @@
         <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F107" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G107" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="J107" s="1">
         <v>140005</v>
@@ -4811,143 +4864,134 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>186</v>
+      <c r="A108" s="1">
+        <v>150011</v>
       </c>
       <c r="B108" s="1">
         <v>15</v>
       </c>
+      <c r="C108" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L108" s="1">
-        <v>150011</v>
+      <c r="G108" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J108" s="1">
+        <v>140005</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A109" s="1">
-        <v>150012</v>
+      <c r="A109" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B109" s="1">
         <v>15</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J109" s="1">
-        <v>140005</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>178</v>
+      <c r="L109" s="1">
+        <v>150011</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>190</v>
+      <c r="A110" s="1">
+        <v>150012</v>
       </c>
       <c r="B110" s="1">
         <v>15</v>
       </c>
+      <c r="C110" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D110" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L110" s="1">
-        <v>150012</v>
+      <c r="J110" s="1">
+        <v>140005</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A111" s="1">
-        <v>150013</v>
+      <c r="A111" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B111" s="1">
         <v>15</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D111" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J111" s="1">
-        <v>140007</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>212</v>
+      <c r="L111" s="1">
+        <v>150012</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
-        <v>218</v>
+      <c r="A112" s="1">
+        <v>150013</v>
       </c>
       <c r="B112" s="1">
         <v>15</v>
       </c>
+      <c r="C112" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D112" t="s">
-        <v>219</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="L112" s="1">
-        <v>150013</v>
+        <v>215</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J112" s="1">
+        <v>140007</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A113" s="1">
-        <v>150014</v>
+      <c r="A113" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B113" s="1">
         <v>15</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D113" t="s">
-        <v>216</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J113" s="1">
-        <v>140007</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
+      </c>
+      <c r="L113" s="1">
+        <v>150013</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
-        <v>150015</v>
+        <v>150014</v>
       </c>
       <c r="B114" s="1">
         <v>15</v>
@@ -4956,7 +5000,7 @@
         <v>52</v>
       </c>
       <c r="D114" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>59</v>
@@ -4964,22 +5008,34 @@
       <c r="F114" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G114" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J114" s="1">
-        <v>140008</v>
+        <v>140007</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
-        <v>231</v>
+      <c r="A115" s="1">
+        <v>150015</v>
       </c>
       <c r="B115" s="1">
         <v>15</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D115" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>59</v>
@@ -4987,137 +5043,125 @@
       <c r="F115" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L115" s="1">
-        <v>150015</v>
+      <c r="J115" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A116" s="1">
-        <v>150016</v>
+      <c r="A116" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B116" s="1">
         <v>15</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D116" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J116" s="1">
-        <v>140008</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>226</v>
+      <c r="F116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L116" s="1">
+        <v>150015</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>242</v>
+      <c r="A117" s="1">
+        <v>150016</v>
       </c>
       <c r="B117" s="1">
         <v>15</v>
       </c>
+      <c r="C117" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L117" s="1">
-        <v>150016</v>
+      <c r="J117" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A118" s="1">
-        <v>150017</v>
+      <c r="A118" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B118" s="1">
         <v>15</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D118" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J118" s="1">
-        <v>140008</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>226</v>
+      <c r="F118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L118" s="1">
+        <v>150016</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>251</v>
+      <c r="A119" s="1">
+        <v>150017</v>
       </c>
       <c r="B119" s="1">
         <v>15</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D119" t="s">
-        <v>252</v>
-      </c>
-      <c r="L119" s="1">
-        <v>150017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="1">
-        <v>150018</v>
+        <v>230</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J119" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B120" s="1">
         <v>15</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D120" t="s">
-        <v>276</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J120" s="1">
-        <v>140008</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+      <c r="L120" s="1">
+        <v>150017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
-        <v>150019</v>
+        <v>150018</v>
       </c>
       <c r="B121" s="1">
         <v>15</v>
@@ -5126,19 +5170,19 @@
         <v>52</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1945</v>
-      </c>
-      <c r="F121" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>59</v>
@@ -5151,60 +5195,69 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
-        <v>282</v>
+      <c r="A122" s="1">
+        <v>150019</v>
       </c>
       <c r="B122" s="1">
         <v>15</v>
       </c>
+      <c r="C122" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D122" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E122" s="1">
-        <v>1947</v>
-      </c>
-      <c r="L122" s="1">
-        <v>150019</v>
+        <v>1945</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J122" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A123" s="1">
-        <v>150020</v>
+      <c r="A123" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="B123" s="1">
         <v>15</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D123" t="s">
-        <v>317</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J123" s="1">
-        <v>140010</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>314</v>
+        <v>283</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1947</v>
+      </c>
+      <c r="L123" s="1">
+        <v>150019</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
-        <v>319</v>
+      <c r="A124" s="1">
+        <v>150020</v>
       </c>
       <c r="B124" s="1">
         <v>15</v>
       </c>
+      <c r="C124" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D124" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>59</v>
@@ -5212,31 +5265,25 @@
       <c r="F124" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L124" s="1">
-        <v>150020</v>
+      <c r="G124" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J124" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A125" s="1">
-        <v>150021</v>
+      <c r="A125" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B125" s="1">
         <v>15</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D125" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>59</v>
@@ -5244,25 +5291,31 @@
       <c r="F125" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G125" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J125" s="1">
-        <v>140010</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>314</v>
+      <c r="G125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L125" s="1">
+        <v>150020</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
-        <v>326</v>
+      <c r="A126" s="1">
+        <v>150021</v>
       </c>
       <c r="B126" s="1">
         <v>15</v>
       </c>
+      <c r="C126" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>59</v>
@@ -5270,215 +5323,221 @@
       <c r="F126" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L126" s="1">
-        <v>150021</v>
+      <c r="G126" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J126" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A127" s="1">
-        <v>150022</v>
+      <c r="A127" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="B127" s="1">
         <v>15</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D127" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J127" s="1">
-        <v>140010</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>329</v>
+      <c r="F127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L127" s="1">
+        <v>150021</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
-        <v>333</v>
+      <c r="A128" s="1">
+        <v>150022</v>
       </c>
       <c r="B128" s="1">
         <v>15</v>
       </c>
+      <c r="C128" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D128" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L128" s="1">
-        <v>150022</v>
+      <c r="J128" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A129" s="1">
-        <v>150023</v>
+      <c r="A129" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B129" s="1">
         <v>15</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D129" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J129" s="1">
-        <v>140010</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>329</v>
+      <c r="L129" s="1">
+        <v>150022</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
-        <v>335</v>
+      <c r="A130" s="1">
+        <v>150023</v>
       </c>
       <c r="B130" s="1">
         <v>15</v>
       </c>
+      <c r="C130" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D130" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L130" s="1">
-        <v>150023</v>
+      <c r="J130" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A131" s="1">
-        <v>150024</v>
+      <c r="A131" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="B131" s="1">
         <v>15</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J131" s="1">
-        <v>140011</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>339</v>
+      <c r="L131" s="1">
+        <v>150023</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
-        <v>343</v>
+      <c r="A132" s="1">
+        <v>150024</v>
       </c>
       <c r="B132" s="1">
         <v>15</v>
       </c>
+      <c r="C132" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L132" s="1">
-        <v>150024</v>
+      <c r="F132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J132" s="1">
+        <v>140011</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A133" s="1">
-        <v>150025</v>
+      <c r="A133" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B133" s="1">
         <v>15</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D133" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J133" s="1">
-        <v>140012</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>351</v>
+      <c r="L133" s="1">
+        <v>150024</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
-        <v>53</v>
+      <c r="A134" s="1">
+        <v>150025</v>
       </c>
       <c r="B134" s="1">
         <v>15</v>
       </c>
+      <c r="C134" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D134" t="s">
-        <v>54</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1943</v>
+        <v>353</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G134" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="J134" s="1">
-        <v>140001</v>
+        <v>140012</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>57</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B135" s="1">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E135" s="1">
-        <v>1950</v>
+        <v>1943</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J135" s="1">
         <v>140001</v>
@@ -5489,39 +5548,36 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B136" s="1">
         <v>15</v>
       </c>
       <c r="D136" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1950</v>
+      </c>
+      <c r="J136" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" s="1">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
         <v>37</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E137" s="1">
         <v>1977</v>
-      </c>
-      <c r="J136" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A137" s="1">
-        <v>160001</v>
-      </c>
-      <c r="B137" s="1">
-        <v>16</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D137" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" s="1">
-        <v>1979</v>
       </c>
       <c r="J137" s="1">
         <v>150001</v>
@@ -5531,221 +5587,221 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
-        <v>14</v>
+      <c r="A138" s="1">
+        <v>160001</v>
       </c>
       <c r="B138" s="1">
         <v>16</v>
       </c>
+      <c r="C138" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1">
-        <v>1984</v>
-      </c>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1">
-        <v>160001</v>
+        <v>1979</v>
+      </c>
+      <c r="J138" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A139" s="1">
-        <v>160002</v>
+      <c r="A139" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B139" s="1">
         <v>16</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139" s="1">
-        <v>1981</v>
-      </c>
-      <c r="J139" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>9</v>
+        <v>1984</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1">
+        <v>160001</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
-        <v>17</v>
+      <c r="A140" s="1">
+        <v>160002</v>
       </c>
       <c r="B140" s="1">
         <v>16</v>
       </c>
+      <c r="C140" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E140" s="1">
-        <v>1985</v>
-      </c>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1">
-        <v>160002</v>
+        <v>1981</v>
+      </c>
+      <c r="J140" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A141" s="1">
-        <v>160003</v>
+      <c r="A141" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B141" s="1">
         <v>16</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E141" s="1">
-        <v>1988</v>
-      </c>
-      <c r="J141" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>9</v>
+        <v>1985</v>
+      </c>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1">
+        <v>160002</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
-        <v>20</v>
+      <c r="A142" s="1">
+        <v>160003</v>
       </c>
       <c r="B142" s="1">
         <v>16</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D142" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E142" s="1">
-        <v>1989</v>
-      </c>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1">
-        <v>160003</v>
+        <v>1988</v>
+      </c>
+      <c r="J142" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A143" s="1">
-        <v>160004</v>
+      <c r="A143" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B143" s="1">
         <v>16</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" s="1">
-        <v>1980</v>
-      </c>
-      <c r="J143" s="1">
-        <v>150002</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>11</v>
+        <v>1989</v>
+      </c>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1">
+        <v>160003</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
-        <v>23</v>
+      <c r="A144" s="1">
+        <v>160004</v>
       </c>
       <c r="B144" s="1">
         <v>16</v>
       </c>
+      <c r="C144" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D144" t="s">
-        <v>24</v>
-      </c>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1">
-        <v>160004</v>
+        <v>22</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1980</v>
+      </c>
+      <c r="J144" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A145" s="1">
-        <v>160005</v>
+      <c r="A145" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B145" s="1">
         <v>16</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D145" t="s">
-        <v>25</v>
-      </c>
-      <c r="E145" s="1">
-        <v>1982</v>
-      </c>
-      <c r="F145" s="1">
-        <v>2023</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J145" s="1">
-        <v>150002</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1">
+        <v>160004</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
-        <v>26</v>
+      <c r="A146" s="1">
+        <v>160005</v>
       </c>
       <c r="B146" s="1">
         <v>16</v>
       </c>
+      <c r="C146" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E146" s="1">
-        <v>1987</v>
-      </c>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1">
-        <v>160005</v>
+        <v>1982</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J146" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A147" s="1">
-        <v>160006</v>
+      <c r="A147" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B147" s="1">
         <v>16</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D147" t="s">
-        <v>148</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J147" s="1">
-        <v>150003</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1987</v>
+      </c>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1">
+        <v>160005</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
-        <v>160007</v>
+        <v>160006</v>
       </c>
       <c r="B148" s="1">
         <v>16</v>
@@ -5754,7 +5810,7 @@
         <v>52</v>
       </c>
       <c r="D148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>59</v>
@@ -5768,7 +5824,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
-        <v>160008</v>
+        <v>160007</v>
       </c>
       <c r="B149" s="1">
         <v>16</v>
@@ -5777,21 +5833,21 @@
         <v>52</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J149" s="1">
-        <v>150004</v>
+        <v>150003</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
-        <v>160009</v>
+        <v>160008</v>
       </c>
       <c r="B150" s="1">
         <v>16</v>
@@ -5800,12 +5856,9 @@
         <v>52</v>
       </c>
       <c r="D150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F150" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J150" s="1">
@@ -5817,7 +5870,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
-        <v>160010</v>
+        <v>160009</v>
       </c>
       <c r="B151" s="1">
         <v>16</v>
@@ -5826,21 +5879,24 @@
         <v>52</v>
       </c>
       <c r="D151" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F151" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J151" s="1">
-        <v>150005</v>
+        <v>150004</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
-        <v>160011</v>
+        <v>160010</v>
       </c>
       <c r="B152" s="1">
         <v>16</v>
@@ -5849,21 +5905,21 @@
         <v>52</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J152" s="1">
-        <v>150006</v>
+        <v>150005</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
-        <v>160012</v>
+        <v>160011</v>
       </c>
       <c r="B153" s="1">
         <v>16</v>
@@ -5872,21 +5928,21 @@
         <v>52</v>
       </c>
       <c r="D153" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J153" s="1">
-        <v>150007</v>
+        <v>150006</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
-        <v>160013</v>
+        <v>160012</v>
       </c>
       <c r="B154" s="1">
         <v>16</v>
@@ -5895,21 +5951,21 @@
         <v>52</v>
       </c>
       <c r="D154" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J154" s="1">
-        <v>150008</v>
+        <v>150007</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
-        <v>160014</v>
+        <v>160013</v>
       </c>
       <c r="B155" s="1">
         <v>16</v>
@@ -5918,7 +5974,7 @@
         <v>52</v>
       </c>
       <c r="D155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>59</v>
@@ -5932,7 +5988,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
-        <v>160015</v>
+        <v>160014</v>
       </c>
       <c r="B156" s="1">
         <v>16</v>
@@ -5941,16 +5997,16 @@
         <v>52</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J156" s="1">
-        <v>150009</v>
+        <v>150008</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.45">
@@ -5964,21 +6020,21 @@
         <v>52</v>
       </c>
       <c r="D157" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J157" s="1">
-        <v>150011</v>
+        <v>150009</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
-        <v>160016</v>
+        <v>160015</v>
       </c>
       <c r="B158" s="1">
         <v>16</v>
@@ -5987,7 +6043,7 @@
         <v>52</v>
       </c>
       <c r="D158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>59</v>
@@ -6001,7 +6057,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
-        <v>160017</v>
+        <v>160016</v>
       </c>
       <c r="B159" s="1">
         <v>16</v>
@@ -6010,21 +6066,21 @@
         <v>52</v>
       </c>
       <c r="D159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J159" s="1">
-        <v>150012</v>
+        <v>150011</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
-        <v>160018</v>
+        <v>160017</v>
       </c>
       <c r="B160" s="1">
         <v>16</v>
@@ -6033,189 +6089,192 @@
         <v>52</v>
       </c>
       <c r="D160" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I160" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="J160" s="1">
-        <v>150015</v>
+        <v>150012</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A161" s="1" t="s">
-        <v>236</v>
+      <c r="A161" s="1">
+        <v>160018</v>
       </c>
       <c r="B161" s="1">
         <v>16</v>
       </c>
+      <c r="C161" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D161" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L161" s="1">
-        <v>160018</v>
+      <c r="F161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J161" s="1">
+        <v>150015</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A162" s="1">
-        <v>160019</v>
+      <c r="A162" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B162" s="1">
         <v>16</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D162" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J162" s="1">
-        <v>150015</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>231</v>
+      <c r="L162" s="1">
+        <v>160018</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A163" s="1" t="s">
-        <v>239</v>
+      <c r="A163" s="1">
+        <v>160019</v>
       </c>
       <c r="B163" s="1">
         <v>16</v>
       </c>
+      <c r="C163" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D163" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L163" s="1">
-        <v>160019</v>
+      <c r="J163" s="1">
+        <v>150015</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A164" s="1">
-        <v>160020</v>
+      <c r="A164" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B164" s="1">
         <v>16</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D164" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J164" s="1">
-        <v>150015</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>231</v>
+      <c r="L164" s="1">
+        <v>160019</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A165" s="1" t="s">
-        <v>419</v>
+      <c r="A165" s="1">
+        <v>160020</v>
       </c>
       <c r="B165" s="1">
         <v>16</v>
       </c>
+      <c r="C165" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D165" t="s">
-        <v>420</v>
+        <v>235</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1">
-        <v>160020</v>
+      <c r="J165" s="1">
+        <v>150015</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A166" s="1">
-        <v>160021</v>
+      <c r="A166" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B166" s="1">
         <v>16</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D166" t="s">
-        <v>244</v>
-      </c>
-      <c r="J166" s="1">
-        <v>150016</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>242</v>
+        <v>420</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1">
+        <v>160020</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A167" s="1" t="s">
-        <v>249</v>
+      <c r="A167" s="1">
+        <v>160021</v>
       </c>
       <c r="B167" s="1">
         <v>16</v>
       </c>
+      <c r="C167" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D167" t="s">
-        <v>248</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L167" s="1">
-        <v>160021</v>
+        <v>244</v>
+      </c>
+      <c r="J167" s="1">
+        <v>150016</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A168" s="1">
-        <v>160022</v>
+      <c r="A168" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B168" s="1">
         <v>16</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D168" t="s">
-        <v>245</v>
-      </c>
-      <c r="J168" s="1">
-        <v>150016</v>
-      </c>
-      <c r="K168" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L168" s="1">
+        <v>160021</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
-        <v>160023</v>
+        <v>160022</v>
       </c>
       <c r="B169" s="1">
         <v>16</v>
@@ -6224,7 +6283,7 @@
         <v>52</v>
       </c>
       <c r="D169" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J169" s="1">
         <v>150016</v>
@@ -6235,7 +6294,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
-        <v>160024</v>
+        <v>160023</v>
       </c>
       <c r="B170" s="1">
         <v>16</v>
@@ -6244,7 +6303,7 @@
         <v>52</v>
       </c>
       <c r="D170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J170" s="1">
         <v>150016</v>
@@ -6255,7 +6314,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
-        <v>160025</v>
+        <v>160024</v>
       </c>
       <c r="B171" s="1">
         <v>16</v>
@@ -6264,120 +6323,120 @@
         <v>52</v>
       </c>
       <c r="D171" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J171" s="1">
-        <v>150017</v>
+        <v>150016</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A172" s="1" t="s">
-        <v>256</v>
+      <c r="A172" s="1">
+        <v>160025</v>
       </c>
       <c r="B172" s="1">
         <v>16</v>
       </c>
+      <c r="C172" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D172" t="s">
-        <v>257</v>
-      </c>
-      <c r="L172" s="1">
-        <v>160025</v>
+        <v>253</v>
+      </c>
+      <c r="J172" s="1">
+        <v>150017</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A173" s="1">
-        <v>160026</v>
+      <c r="A173" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B173" s="1">
         <v>16</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D173" t="s">
-        <v>254</v>
-      </c>
-      <c r="J173" s="1">
-        <v>150017</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
+      </c>
+      <c r="L173" s="1">
+        <v>160025</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A174" s="1" t="s">
-        <v>258</v>
+      <c r="A174" s="1">
+        <v>160026</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
       </c>
+      <c r="C174" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D174" t="s">
-        <v>259</v>
-      </c>
-      <c r="L174" s="1">
-        <v>160026</v>
+        <v>254</v>
+      </c>
+      <c r="J174" s="1">
+        <v>150017</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A175" s="1">
-        <v>160027</v>
+      <c r="A175" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="B175" s="1">
         <v>16</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D175" t="s">
-        <v>255</v>
-      </c>
-      <c r="J175" s="1">
-        <v>150017</v>
-      </c>
-      <c r="K175" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
+      </c>
+      <c r="L175" s="1">
+        <v>160026</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A176" s="1" t="s">
-        <v>260</v>
+      <c r="A176" s="1">
+        <v>160027</v>
       </c>
       <c r="B176" s="1">
         <v>16</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D176" t="s">
-        <v>261</v>
-      </c>
-      <c r="L176" s="1">
-        <v>160027</v>
+        <v>255</v>
+      </c>
+      <c r="J176" s="1">
+        <v>150017</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A177" s="1">
-        <v>160028</v>
+      <c r="A177" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="B177" s="1">
         <v>16</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D177" t="s">
-        <v>157</v>
-      </c>
-      <c r="J177" s="1">
-        <v>150017</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
+      </c>
+      <c r="L177" s="1">
+        <v>160027</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
-        <v>160029</v>
+        <v>160028</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
@@ -6386,147 +6445,144 @@
         <v>52</v>
       </c>
       <c r="D178" t="s">
-        <v>284</v>
-      </c>
-      <c r="E178" s="1">
-        <v>1974</v>
+        <v>157</v>
       </c>
       <c r="J178" s="1">
-        <v>150019</v>
+        <v>150017</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A179" s="1" t="s">
-        <v>287</v>
+      <c r="A179" s="1">
+        <v>160029</v>
       </c>
       <c r="B179" s="1">
         <v>16</v>
       </c>
+      <c r="C179" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D179" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E179" s="1">
-        <v>1979</v>
-      </c>
-      <c r="L179" s="1">
-        <v>160029</v>
+        <v>1974</v>
+      </c>
+      <c r="J179" s="1">
+        <v>150019</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A180" s="1">
-        <v>160030</v>
+      <c r="A180" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B180" s="1">
         <v>16</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D180" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E180" s="1">
-        <v>1977</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J180" s="1">
-        <v>150019</v>
-      </c>
-      <c r="K180" s="1" t="s">
-        <v>282</v>
+        <v>1979</v>
+      </c>
+      <c r="L180" s="1">
+        <v>160029</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A181" s="1" t="s">
-        <v>297</v>
+      <c r="A181" s="1">
+        <v>160030</v>
       </c>
       <c r="B181" s="1">
         <v>16</v>
       </c>
+      <c r="C181" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D181" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E181" s="1">
-        <v>1989</v>
+        <v>1977</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="L181" s="1">
-        <v>160030</v>
+        <v>286</v>
+      </c>
+      <c r="J181" s="1">
+        <v>150019</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A182" s="1">
-        <v>160031</v>
+      <c r="A182" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="B182" s="1">
         <v>16</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D182" t="s">
-        <v>321</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J182" s="1">
-        <v>150020</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>319</v>
+        <v>298</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="L182" s="1">
+        <v>160030</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A183" s="1" t="s">
-        <v>322</v>
+      <c r="A183" s="1">
+        <v>160031</v>
       </c>
       <c r="B183" s="1">
         <v>16</v>
       </c>
+      <c r="C183" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D183" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L183" s="1">
-        <v>160031</v>
+      <c r="J183" s="1">
+        <v>150020</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A184" s="1">
-        <v>160032</v>
+      <c r="A184" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B184" s="1">
         <v>16</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D184" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J184" s="1">
-        <v>150021</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>326</v>
+      <c r="L184" s="1">
+        <v>160031</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
-        <v>160033</v>
+        <v>160032</v>
       </c>
       <c r="B185" s="1">
         <v>16</v>
@@ -6535,7 +6591,7 @@
         <v>52</v>
       </c>
       <c r="D185" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>59</v>
@@ -6549,7 +6605,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
-        <v>160034</v>
+        <v>160033</v>
       </c>
       <c r="B186" s="1">
         <v>16</v>
@@ -6558,21 +6614,21 @@
         <v>52</v>
       </c>
       <c r="D186" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J186" s="1">
-        <v>150022</v>
+        <v>150021</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
-        <v>160035</v>
+        <v>160034</v>
       </c>
       <c r="B187" s="1">
         <v>16</v>
@@ -6581,7 +6637,7 @@
         <v>52</v>
       </c>
       <c r="D187" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>59</v>
@@ -6595,7 +6651,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
-        <v>160036</v>
+        <v>160035</v>
       </c>
       <c r="B188" s="1">
         <v>16</v>
@@ -6604,21 +6660,21 @@
         <v>52</v>
       </c>
       <c r="D188" t="s">
-        <v>337</v>
+        <v>183</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J188" s="1">
-        <v>150023</v>
+        <v>150022</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
-        <v>160037</v>
+        <v>160036</v>
       </c>
       <c r="B189" s="1">
         <v>16</v>
@@ -6627,7 +6683,7 @@
         <v>52</v>
       </c>
       <c r="D189" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>59</v>
@@ -6641,7 +6697,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
-        <v>160038</v>
+        <v>160037</v>
       </c>
       <c r="B190" s="1">
         <v>16</v>
@@ -6650,147 +6706,150 @@
         <v>52</v>
       </c>
       <c r="D190" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J190" s="1">
-        <v>150024</v>
+        <v>150023</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A191" s="1" t="s">
-        <v>345</v>
+      <c r="A191" s="1">
+        <v>160038</v>
       </c>
       <c r="B191" s="1">
         <v>16</v>
       </c>
+      <c r="C191" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D191" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L191" s="1">
-        <v>160038</v>
+      <c r="J191" s="1">
+        <v>150024</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A192" s="1">
-        <v>160039</v>
+      <c r="A192" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B192" s="1">
         <v>16</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D192" t="s">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J192" s="1">
-        <v>150024</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>343</v>
+      <c r="L192" s="1">
+        <v>160038</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A193" s="1" t="s">
-        <v>350</v>
+      <c r="A193" s="1">
+        <v>160039</v>
       </c>
       <c r="B193" s="1">
         <v>16</v>
       </c>
+      <c r="C193" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D193" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L193" s="1">
-        <v>160039</v>
+      <c r="J193" s="1">
+        <v>150024</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="B194" s="1">
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>39</v>
-      </c>
-      <c r="E194" s="1">
-        <v>1991</v>
-      </c>
-      <c r="J194" s="1">
-        <v>150001</v>
-      </c>
-      <c r="K194" s="1" t="s">
-        <v>9</v>
+        <v>348</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L194" s="1">
+        <v>160039</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B195" s="1">
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E195" s="1">
-        <v>1978</v>
+        <v>1991</v>
       </c>
       <c r="J195" s="1">
-        <v>150002</v>
+        <v>150001</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="B196" s="1">
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="E196" s="1">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J196" s="1">
-        <v>150019</v>
+        <v>150002</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B197" s="1">
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E197" s="1">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="J197" s="1">
         <v>150019</v>
@@ -6800,31 +6859,28 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A198" s="1">
-        <v>170001</v>
+      <c r="A198" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B198" s="1">
-        <v>17</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="E198" s="1">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="J198" s="1">
-        <v>160001</v>
+        <v>150019</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
-        <v>170002</v>
+        <v>170001</v>
       </c>
       <c r="B199" s="1">
         <v>17</v>
@@ -6833,21 +6889,21 @@
         <v>52</v>
       </c>
       <c r="D199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E199" s="1">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="J199" s="1">
-        <v>160002</v>
+        <v>160001</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
-        <v>170003</v>
+        <v>170002</v>
       </c>
       <c r="B200" s="1">
         <v>17</v>
@@ -6856,21 +6912,21 @@
         <v>52</v>
       </c>
       <c r="D200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E200" s="1">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="J200" s="1">
-        <v>160004</v>
+        <v>160002</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
-        <v>170004</v>
+        <v>170003</v>
       </c>
       <c r="B201" s="1">
         <v>17</v>
@@ -6879,10 +6935,10 @@
         <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E201" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="J201" s="1">
         <v>160004</v>
@@ -6893,7 +6949,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
-        <v>170005</v>
+        <v>170004</v>
       </c>
       <c r="B202" s="1">
         <v>17</v>
@@ -6902,21 +6958,21 @@
         <v>52</v>
       </c>
       <c r="D202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E202" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="J202" s="1">
-        <v>160005</v>
+        <v>160004</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
-        <v>170006</v>
+        <v>170005</v>
       </c>
       <c r="B203" s="1">
         <v>17</v>
@@ -6925,10 +6981,10 @@
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E203" s="1">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="J203" s="1">
         <v>160005</v>
@@ -6948,21 +7004,21 @@
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="E204" s="1">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="J204" s="1">
-        <v>160018</v>
+        <v>160005</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
-        <v>170007</v>
+        <v>170006</v>
       </c>
       <c r="B205" s="1">
         <v>17</v>
@@ -6971,21 +7027,21 @@
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>241</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1991</v>
       </c>
       <c r="J205" s="1">
-        <v>160019</v>
+        <v>160018</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
-        <v>170008</v>
+        <v>170007</v>
       </c>
       <c r="B206" s="1">
         <v>17</v>
@@ -6994,18 +7050,21 @@
         <v>52</v>
       </c>
       <c r="D206" t="s">
-        <v>25</v>
+        <v>241</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J206" s="1">
-        <v>160021</v>
+        <v>160019</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
-        <v>170009</v>
+        <v>170008</v>
       </c>
       <c r="B207" s="1">
         <v>17</v>
@@ -7014,7 +7073,7 @@
         <v>52</v>
       </c>
       <c r="D207" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="J207" s="1">
         <v>160021</v>
@@ -7025,7 +7084,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
-        <v>170010</v>
+        <v>170009</v>
       </c>
       <c r="B208" s="1">
         <v>17</v>
@@ -7034,21 +7093,18 @@
         <v>52</v>
       </c>
       <c r="D208" t="s">
-        <v>289</v>
-      </c>
-      <c r="E208" s="1">
-        <v>2005</v>
+        <v>250</v>
       </c>
       <c r="J208" s="1">
-        <v>160029</v>
+        <v>160021</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
-        <v>170011</v>
+        <v>170010</v>
       </c>
       <c r="B209" s="1">
         <v>17</v>
@@ -7057,10 +7113,10 @@
         <v>52</v>
       </c>
       <c r="D209" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E209" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="J209" s="1">
         <v>160029</v>
@@ -7071,7 +7127,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
-        <v>170012</v>
+        <v>170011</v>
       </c>
       <c r="B210" s="1">
         <v>17</v>
@@ -7080,21 +7136,21 @@
         <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>324</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>59</v>
+        <v>290</v>
+      </c>
+      <c r="E210" s="1">
+        <v>2008</v>
       </c>
       <c r="J210" s="1">
-        <v>160031</v>
+        <v>160029</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
-        <v>170013</v>
+        <v>170012</v>
       </c>
       <c r="B211" s="1">
         <v>17</v>
@@ -7103,7 +7159,7 @@
         <v>52</v>
       </c>
       <c r="D211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>59</v>
@@ -7117,7 +7173,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
-        <v>170014</v>
+        <v>170013</v>
       </c>
       <c r="B212" s="1">
         <v>17</v>
@@ -7126,21 +7182,21 @@
         <v>52</v>
       </c>
       <c r="D212" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J212" s="1">
-        <v>160038</v>
+        <v>160031</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
-        <v>170015</v>
+        <v>170014</v>
       </c>
       <c r="B213" s="1">
         <v>17</v>
@@ -7149,143 +7205,166 @@
         <v>52</v>
       </c>
       <c r="D213" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J213" s="1">
-        <v>160039</v>
+        <v>160038</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A214" s="1" t="s">
-        <v>42</v>
+      <c r="A214" s="1">
+        <v>170015</v>
       </c>
       <c r="B214" s="1">
         <v>17</v>
       </c>
+      <c r="C214" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D214" t="s">
-        <v>43</v>
-      </c>
-      <c r="E214" s="1">
-        <v>2012</v>
+        <v>349</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J214" s="1">
-        <v>160001</v>
+        <v>160039</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B215" s="1">
         <v>17</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E215" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="J215" s="1">
-        <v>160002</v>
+        <v>160001</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B216" s="1">
         <v>17</v>
       </c>
       <c r="D216" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E216" s="1">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="J216" s="1">
-        <v>160004</v>
+        <v>160002</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B217" s="1">
         <v>17</v>
       </c>
       <c r="D217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E217" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="J217" s="1">
-        <v>160005</v>
+        <v>160004</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="B218" s="1">
         <v>17</v>
       </c>
       <c r="D218" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="E218" s="1">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="J218" s="1">
-        <v>160029</v>
+        <v>160005</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B219" s="1">
         <v>17</v>
       </c>
       <c r="D219" t="s">
+        <v>291</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J219" s="1">
+        <v>160029</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B220" s="1">
+        <v>17</v>
+      </c>
+      <c r="D220" t="s">
         <v>301</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E220" s="1">
         <v>2011</v>
       </c>
-      <c r="J219" s="1">
+      <c r="J220" s="1">
         <v>160030</v>
       </c>
-      <c r="K219" s="1" t="s">
+      <c r="K220" s="1" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L220" xr:uid="{4C12FB2C-A941-41D9-B9E0-026C8AC41FCD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L219">
-    <sortCondition ref="B2:B219"/>
-    <sortCondition ref="A2:A219"/>
+  <autoFilter ref="A1:L221" xr:uid="{4C12FB2C-A941-41D9-B9E0-026C8AC41FCD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L220">
+    <sortCondition ref="B3:B220"/>
+    <sortCondition ref="A3:A220"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C0954F-C8E0-4B1D-96BF-D29845F2A2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89D844-E23E-4876-8B0A-4C5E4793DB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="422">
   <si>
     <t>ID</t>
   </si>
@@ -1304,9 +1304,6 @@
   </si>
   <si>
     <t>Nguyễn Thị Hương</t>
-  </si>
-  <si>
-    <t>A00001</t>
   </si>
   <si>
     <t>Phả hệ Dương Danh</t>
@@ -1691,8 +1688,8 @@
   <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14:K16"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J194" sqref="J194:K194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1746,8 +1743,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>421</v>
+      <c r="A2" s="17">
+        <v>10000</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1756,7 +1753,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1795,8 +1792,8 @@
       <c r="I3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>421</v>
+      <c r="J3" s="17">
+        <v>10000</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -1825,8 +1822,8 @@
       <c r="I4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>421</v>
+      <c r="J4" s="17">
+        <v>10000</v>
       </c>
       <c r="L4" s="1">
         <v>80001</v>
@@ -2346,6 +2343,12 @@
       <c r="I19" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J19" s="1">
+        <v>100001</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="L19" s="1">
         <v>110003</v>
       </c>
@@ -2471,6 +2474,12 @@
       <c r="I23" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J23" s="16">
+        <v>100002</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>360</v>
+      </c>
       <c r="L23" s="16">
         <v>110006</v>
       </c>
@@ -2500,6 +2509,12 @@
       <c r="I24" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J24" s="16">
+        <v>100002</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>360</v>
+      </c>
       <c r="L24" s="16">
         <v>110006</v>
       </c>
@@ -2599,6 +2614,12 @@
       <c r="I27" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J27" s="1">
+        <v>100003</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="L27" s="1">
         <v>110008</v>
       </c>
@@ -2628,6 +2649,12 @@
       <c r="I28" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J28" s="1">
+        <v>100003</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="L28" s="1">
         <v>110008</v>
       </c>
@@ -2692,6 +2719,12 @@
       <c r="I30" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J30" s="1">
+        <v>110001</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L30" s="1">
         <v>120001</v>
       </c>
@@ -2721,6 +2754,12 @@
       <c r="I31" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J31" s="1">
+        <v>110001</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L31" s="1">
         <v>120001</v>
       </c>
@@ -2785,6 +2824,12 @@
       <c r="I33" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J33" s="1">
+        <v>110001</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L33" s="1">
         <v>120002</v>
       </c>
@@ -2884,6 +2929,12 @@
       <c r="I36" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J36" s="16">
+        <v>110006</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="L36" s="1">
         <v>120004</v>
       </c>
@@ -2948,6 +2999,12 @@
       <c r="I38" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J38" s="16">
+        <v>110006</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="L38" s="1">
         <v>120005</v>
       </c>
@@ -3044,6 +3101,12 @@
       <c r="I41" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="J41" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="L41" s="1">
         <v>130001</v>
       </c>
@@ -3108,6 +3171,12 @@
       <c r="I43" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J43" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L43" s="1">
         <v>130002</v>
       </c>
@@ -3137,6 +3206,12 @@
       <c r="I44" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J44" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L44" s="1">
         <v>130002</v>
       </c>
@@ -3201,6 +3276,12 @@
       <c r="I46" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J46" s="1">
+        <v>120001</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L46">
         <v>130003</v>
       </c>
@@ -3262,6 +3343,12 @@
       <c r="H48" s="5" t="s">
         <v>205</v>
       </c>
+      <c r="J48" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L48" s="1">
         <v>130004</v>
       </c>
@@ -3285,6 +3372,12 @@
       <c r="G49" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="J49" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L49" s="1">
         <v>130004</v>
       </c>
@@ -3349,6 +3442,12 @@
       <c r="I51" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J51" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L51" s="1">
         <v>130005</v>
       </c>
@@ -3448,6 +3547,12 @@
       <c r="I54" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J54" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L54" s="1">
         <v>130007</v>
       </c>
@@ -3599,6 +3704,12 @@
       <c r="I59" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J59" s="1">
+        <v>120005</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="L59" s="1">
         <v>130010</v>
       </c>
@@ -3622,6 +3733,12 @@
       <c r="I60" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J60" s="1">
+        <v>120005</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="L60" s="1">
         <v>130010</v>
       </c>
@@ -3686,6 +3803,12 @@
       <c r="I62" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="J62" s="1">
+        <v>130001</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="L62" s="1">
         <v>140001</v>
       </c>
@@ -3712,6 +3835,12 @@
       <c r="I63" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="J63" s="1">
+        <v>130001</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="L63" s="1">
         <v>140001</v>
       </c>
@@ -3770,6 +3899,12 @@
       <c r="G65" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="J65" s="1">
+        <v>130002</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
@@ -3799,7 +3934,7 @@
       <c r="I66" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <v>130003</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -3831,6 +3966,12 @@
       <c r="I67" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J67" s="1">
+        <v>130003</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L67" s="1">
         <v>140003</v>
       </c>
@@ -3854,7 +3995,7 @@
       <c r="F68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1">
         <v>130003</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -3886,6 +4027,12 @@
       <c r="I69" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J69" s="1">
+        <v>130003</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L69" s="1">
         <v>140004</v>
       </c>
@@ -3909,7 +4056,7 @@
       <c r="F70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1">
         <v>130003</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -3941,6 +4088,12 @@
       <c r="I71" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J71" s="1">
+        <v>130003</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L71" s="1">
         <v>140005</v>
       </c>
@@ -4022,6 +4175,12 @@
       <c r="I74" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J74" s="1">
+        <v>130004</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="L74" s="1">
         <v>140007</v>
       </c>
@@ -4118,6 +4277,12 @@
       <c r="I77" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J77" s="1">
+        <v>130007</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="L77" s="1">
         <v>140008</v>
       </c>
@@ -4147,6 +4312,12 @@
       <c r="I78" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J78" s="1">
+        <v>130007</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="L78" s="1">
         <v>140008</v>
       </c>
@@ -4240,6 +4411,12 @@
       <c r="G81" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="J81" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="L81" s="1">
         <v>140010</v>
       </c>
@@ -4269,6 +4446,12 @@
       <c r="I82" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="J82" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="L82" s="1">
         <v>140010</v>
       </c>
@@ -4324,6 +4507,12 @@
       <c r="I84" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="J84" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="L84" s="1">
         <v>140011</v>
       </c>
@@ -4379,6 +4568,12 @@
       <c r="I86" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="J86" s="1">
+        <v>130008</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="L86" s="1">
         <v>140012</v>
       </c>
@@ -4454,6 +4649,12 @@
       <c r="E89" s="1">
         <v>1953</v>
       </c>
+      <c r="J89" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L89" s="1">
         <v>150001</v>
       </c>
@@ -4491,6 +4692,12 @@
       <c r="D91" t="s">
         <v>12</v>
       </c>
+      <c r="J91" s="1">
+        <v>140001</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L91" s="1">
         <v>150002</v>
       </c>
@@ -4531,6 +4738,12 @@
       <c r="E93" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J93" s="1">
+        <v>140003</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="L93" s="1">
         <v>150003</v>
       </c>
@@ -4583,6 +4796,12 @@
       <c r="E95" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J95" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="L95" s="1">
         <v>150004</v>
       </c>
@@ -4647,6 +4866,12 @@
       <c r="I97" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J97" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="L97" s="1">
         <v>150005</v>
       </c>
@@ -4687,6 +4912,12 @@
       <c r="E99" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J99" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="L99" s="1">
         <v>150006</v>
       </c>
@@ -4727,6 +4958,12 @@
       <c r="E101" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J101" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="L101" s="1">
         <v>150007</v>
       </c>
@@ -4767,6 +5004,12 @@
       <c r="E103" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J103" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="L103" s="1">
         <v>150008</v>
       </c>
@@ -4807,6 +5050,12 @@
       <c r="E105" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J105" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="L105" s="1">
         <v>150009</v>
       </c>
@@ -4824,6 +5073,12 @@
       <c r="E106" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J106" s="1">
+        <v>140004</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="L106" s="1">
         <v>150009</v>
       </c>
@@ -4902,6 +5157,12 @@
       <c r="E109" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J109" s="1">
+        <v>140005</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="L109" s="1">
         <v>150011</v>
       </c>
@@ -4942,6 +5203,12 @@
       <c r="E111" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J111" s="1">
+        <v>140005</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="L111" s="1">
         <v>150012</v>
       </c>
@@ -4985,6 +5252,12 @@
       <c r="G113" s="8" t="s">
         <v>220</v>
       </c>
+      <c r="J113" s="1">
+        <v>140007</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="L113" s="1">
         <v>150013</v>
       </c>
@@ -5066,6 +5339,12 @@
       <c r="F116" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J116" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="L116" s="1">
         <v>150015</v>
       </c>
@@ -5118,6 +5397,12 @@
       <c r="I118" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J118" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="L118" s="1">
         <v>150016</v>
       </c>
@@ -5155,6 +5440,12 @@
       <c r="D120" t="s">
         <v>252</v>
       </c>
+      <c r="J120" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="L120" s="1">
         <v>150017</v>
       </c>
@@ -5242,6 +5533,12 @@
       <c r="E123" s="1">
         <v>1947</v>
       </c>
+      <c r="J123" s="1">
+        <v>140008</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="L123" s="1">
         <v>150019</v>
       </c>
@@ -5300,6 +5597,12 @@
       <c r="I125" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="J125" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="L125" s="1">
         <v>150020</v>
       </c>
@@ -5358,6 +5661,12 @@
       <c r="I127" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="J127" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="L127" s="1">
         <v>150021</v>
       </c>
@@ -5398,6 +5707,12 @@
       <c r="E129" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J129" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="L129" s="1">
         <v>150022</v>
       </c>
@@ -5438,6 +5753,12 @@
       <c r="E131" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J131" s="1">
+        <v>140010</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="L131" s="1">
         <v>150023</v>
       </c>
@@ -5490,6 +5811,12 @@
       <c r="E133" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J133" s="1">
+        <v>140011</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="L133" s="1">
         <v>150024</v>
       </c>
@@ -5622,8 +5949,12 @@
       <c r="E139" s="1">
         <v>1984</v>
       </c>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
+      <c r="J139" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L139" s="1">
         <v>160001</v>
       </c>
@@ -5664,8 +5995,12 @@
       <c r="E141" s="1">
         <v>1985</v>
       </c>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
+      <c r="J141" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L141" s="1">
         <v>160002</v>
       </c>
@@ -5706,8 +6041,12 @@
       <c r="E143" s="1">
         <v>1989</v>
       </c>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
+      <c r="J143" s="1">
+        <v>150001</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L143" s="1">
         <v>160003</v>
       </c>
@@ -5745,8 +6084,12 @@
       <c r="D145" t="s">
         <v>24</v>
       </c>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
+      <c r="J145" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L145" s="1">
         <v>160004</v>
       </c>
@@ -5793,8 +6136,12 @@
       <c r="E147" s="1">
         <v>1987</v>
       </c>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
+      <c r="J147" s="1">
+        <v>150002</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L147" s="1">
         <v>160005</v>
       </c>
@@ -6149,6 +6496,12 @@
       <c r="E162" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J162" s="1">
+        <v>150015</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="L162" s="1">
         <v>160018</v>
       </c>
@@ -6189,6 +6542,12 @@
       <c r="E164" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J164" s="1">
+        <v>150015</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="L164" s="1">
         <v>160019</v>
       </c>
@@ -6229,8 +6588,12 @@
       <c r="E166" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
+      <c r="J166" s="1">
+        <v>150015</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="L166" s="1">
         <v>160020</v>
       </c>
@@ -6268,6 +6631,12 @@
       <c r="E168" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J168" s="1">
+        <v>150016</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="L168" s="1">
         <v>160021</v>
       </c>
@@ -6362,6 +6731,12 @@
       <c r="D173" t="s">
         <v>257</v>
       </c>
+      <c r="J173" s="1">
+        <v>150017</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="L173" s="1">
         <v>160025</v>
       </c>
@@ -6396,6 +6771,12 @@
       <c r="D175" t="s">
         <v>259</v>
       </c>
+      <c r="J175" s="1">
+        <v>150017</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="L175" s="1">
         <v>160026</v>
       </c>
@@ -6430,6 +6811,12 @@
       <c r="D177" t="s">
         <v>261</v>
       </c>
+      <c r="J177" s="1">
+        <v>150017</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="L177" s="1">
         <v>160027</v>
       </c>
@@ -6490,6 +6877,12 @@
       <c r="E180" s="1">
         <v>1979</v>
       </c>
+      <c r="J180" s="1">
+        <v>150019</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="L180" s="1">
         <v>160029</v>
       </c>
@@ -6536,6 +6929,12 @@
       <c r="G182" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="J182" s="1">
+        <v>150019</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="L182" s="1">
         <v>160030</v>
       </c>
@@ -6576,6 +6975,12 @@
       <c r="E184" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J184" s="1">
+        <v>150020</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L184" s="1">
         <v>160031</v>
       </c>
@@ -6754,6 +7159,12 @@
       <c r="E192" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="J192" s="1">
+        <v>150024</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="L192" s="1">
         <v>160038</v>
       </c>
@@ -6793,6 +7204,12 @@
       </c>
       <c r="E194" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="J194" s="1">
+        <v>150024</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="L194" s="1">
         <v>160039</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gia phả\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89D844-E23E-4876-8B0A-4C5E4793DB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A57CB-59E0-4F79-BB0B-567183DF8EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="422">
   <si>
     <t>ID</t>
   </si>
@@ -1688,8 +1688,8 @@
   <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J194" sqref="J194:K194"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3614,6 +3614,12 @@
       <c r="I56" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J56" s="1">
+        <v>120002</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="L56" s="1">
         <v>130008</v>
       </c>
